--- a/Contraseñas Actualizadas.xlsx
+++ b/Contraseñas Actualizadas.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador1\Desktop\Información actualizada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador1\Desktop\Información actualizada\Contrasenas-PICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF9CFE-0731-4D01-9E21-28F6A0C58FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F1BF63-51F5-442D-8611-F723D94F4C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13050" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contraseñas Correo" sheetId="3" r:id="rId1"/>
     <sheet name="Redes Sociales" sheetId="11" r:id="rId2"/>
     <sheet name="Contraseñas Skype" sheetId="5" r:id="rId3"/>
     <sheet name="Contraseñas Equipo usuario" sheetId="8" r:id="rId4"/>
-    <sheet name="NAS" sheetId="10" r:id="rId5"/>
-    <sheet name="Contraseñas administradores Dom" sheetId="12" r:id="rId6"/>
+    <sheet name="Usuarios Server" sheetId="13" r:id="rId5"/>
+    <sheet name="NAS" sheetId="10" r:id="rId6"/>
+    <sheet name="Contraseñas administradores Dom" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Contraseñas Correo'!$A$1:$J$72</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="524">
   <si>
     <t>Plaza Imperial Centro Comercial</t>
   </si>
@@ -760,9 +761,6 @@
     <t>R3sp3t020201</t>
   </si>
   <si>
-    <t>R3sp3t020202</t>
-  </si>
-  <si>
     <t>R3sp3t020203</t>
   </si>
   <si>
@@ -1511,6 +1509,105 @@
   </si>
   <si>
     <t>Daniel Santiago Caycedo Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administrador@plazaimperialcc.com </t>
+  </si>
+  <si>
+    <t>FinanzasAdmin</t>
+  </si>
+  <si>
+    <t>GerenciaAdmin</t>
+  </si>
+  <si>
+    <t>GestionHAdmin</t>
+  </si>
+  <si>
+    <t>MercadeoAdmin</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>PuntosInfo</t>
+  </si>
+  <si>
+    <t>Sapiens</t>
+  </si>
+  <si>
+    <t>Escaner</t>
+  </si>
+  <si>
+    <t>F1n@nz@sadm</t>
+  </si>
+  <si>
+    <t>G3r3nc1@adm</t>
+  </si>
+  <si>
+    <t>G3st10nHadm</t>
+  </si>
+  <si>
+    <t>M3rc@d30adm</t>
+  </si>
+  <si>
+    <t>V@r10s1mper1@l</t>
+  </si>
+  <si>
+    <t>Punt0s1nf0rm@c10n</t>
+  </si>
+  <si>
+    <t>S@p13ns1mper1@l</t>
+  </si>
+  <si>
+    <t>Esc@n3r1mper1@l</t>
+  </si>
+  <si>
+    <t>ComerAdmin</t>
+  </si>
+  <si>
+    <t>C0m3rAdm1n</t>
+  </si>
+  <si>
+    <t>SeguridadAdmin</t>
+  </si>
+  <si>
+    <t>S3gur1@dm1n</t>
+  </si>
+  <si>
+    <t>OperacionesAdmin</t>
+  </si>
+  <si>
+    <t>Op3r@c1Adm1n</t>
+  </si>
+  <si>
+    <t>ParqueaderosAdmin</t>
+  </si>
+  <si>
+    <t>P@rqu3@d3@dm1n</t>
+  </si>
+  <si>
+    <t>GerenteAdmin</t>
+  </si>
+  <si>
+    <t>Pl@z@1mp3r1@l2021</t>
+  </si>
+  <si>
+    <t>Colombia2021.</t>
+  </si>
+  <si>
+    <t>Pl@z@1mp3r1@l</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>jefeambi+F31:G32ental@plazaimperialcc.com</t>
+  </si>
+  <si>
+    <t>C@l1d@dAdm1n</t>
+  </si>
+  <si>
+    <t>CalidadAdmin</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,13 +1679,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1676,7 +1766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1858,13 +1948,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1874,10 +2020,113 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1887,10 +2136,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1898,43 +2147,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1943,10 +2158,50 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1957,7 +2212,113 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1968,6 +2329,45 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1975,13 +2375,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1993,82 +2393,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2077,13 +2408,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2092,19 +2423,17 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -2117,14 +2446,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2133,11 +2460,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2146,7 +2471,18 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2156,39 +2492,21 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2199,30 +2517,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2232,86 +2526,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2322,7 +2540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2510,93 +2728,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2604,266 +2747,469 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2877,6 +3223,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2889,22 +3238,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2913,7 +3304,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2925,226 +3319,41 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3746,8 +3955,8 @@
   </sheetPr>
   <dimension ref="B1:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3765,1417 +3974,1417 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="257"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="279">
+      <c r="B2" s="204"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="210">
         <f ca="1">TODAY()</f>
-        <v>44400</v>
-      </c>
-      <c r="E2" s="280"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="259"/>
+        <v>44410</v>
+      </c>
+      <c r="E2" s="211"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229"/>
     </row>
     <row r="3" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="260"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="271" t="s">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="272"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="261"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="232"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="260"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="273" t="s">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="274"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="261"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="232"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="260"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="275" t="s">
+      <c r="B5" s="206"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="216" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="276"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="261"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="232"/>
       <c r="J5" s="70"/>
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="262"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="264"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="235"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
     </row>
     <row r="7" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="281"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="282"/>
-      <c r="I7" s="283"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="224"/>
       <c r="J7" s="71"/>
       <c r="K7" s="71"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="284" t="s">
+      <c r="B8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="285" t="s">
+      <c r="C8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="284" t="s">
+      <c r="D8" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="285" t="s">
+      <c r="E8" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="286" t="s">
+      <c r="F8" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="287"/>
-      <c r="H8" s="285" t="s">
+      <c r="G8" s="237"/>
+      <c r="H8" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="I8" s="288" t="s">
+      <c r="I8" s="90" t="s">
         <v>238</v>
       </c>
       <c r="J8" s="76"/>
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="180">
+      <c r="B9" s="162">
         <v>1</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="183" t="s">
+      <c r="D9" s="166" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="224" t="s">
+      <c r="G9" s="242"/>
+      <c r="H9" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="I9" s="235" t="s">
-        <v>276</v>
-      </c>
-      <c r="J9" s="79"/>
+      <c r="I9" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" s="77"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="175"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="123" t="s">
-        <v>434</v>
-      </c>
-      <c r="G10" s="165"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="J10" s="79"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="168" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="169"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="J10" s="77"/>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="174">
+      <c r="B11" s="170">
         <f>B9+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="115"/>
-      <c r="F11" s="119" t="s">
+      <c r="E11" s="239"/>
+      <c r="F11" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="225" t="s">
+      <c r="G11" s="169"/>
+      <c r="H11" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="237" t="s">
-        <v>273</v>
-      </c>
-      <c r="J11" s="79"/>
+      <c r="I11" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11" s="77"/>
       <c r="K11" s="71"/>
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="175"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="123" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" s="165"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="238" t="s">
+      <c r="B12" s="163"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="168" t="s">
         <v>430</v>
       </c>
-      <c r="J12" s="79"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="92" t="s">
+        <v>429</v>
+      </c>
+      <c r="J12" s="77"/>
       <c r="K12" s="71"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88">
+      <c r="B13" s="116">
         <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C13" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="D13" s="90" t="s">
+      <c r="C13" s="122" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="121" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="226" t="s">
+      <c r="E13" s="240"/>
+      <c r="F13" s="188" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="189"/>
+      <c r="H13" s="104" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="239" t="s">
+      <c r="I13" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" s="78"/>
+    </row>
+    <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="162">
+        <f t="shared" ref="B14:B64" si="0">B13+1</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="195" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="203" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="197"/>
+      <c r="H14" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="149" t="s">
         <v>274</v>
       </c>
-      <c r="J13" s="81"/>
-    </row>
-    <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="180">
-        <f t="shared" ref="B14:B65" si="0">B13+1</f>
-        <v>4</v>
-      </c>
-      <c r="C14" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="224" t="s">
-        <v>232</v>
-      </c>
-      <c r="I14" s="240" t="s">
-        <v>275</v>
-      </c>
-      <c r="J14" s="81"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="175"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="123" t="s">
-        <v>433</v>
-      </c>
-      <c r="G15" s="190"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="237" t="s">
-        <v>427</v>
-      </c>
-      <c r="J15" s="81"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="168" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" s="169"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="174">
+      <c r="B16" s="170">
         <f>B14+1</f>
         <v>5</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="126"/>
-      <c r="F16" s="119" t="s">
-        <v>417</v>
-      </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="225" t="s">
+      <c r="E16" s="180"/>
+      <c r="F16" s="183" t="s">
+        <v>416</v>
+      </c>
+      <c r="G16" s="169"/>
+      <c r="H16" s="103" t="s">
+        <v>451</v>
+      </c>
+      <c r="I16" s="93" t="s">
         <v>452</v>
       </c>
-      <c r="I16" s="241" t="s">
-        <v>453</v>
-      </c>
-      <c r="J16" s="81"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="175"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="123" t="s">
-        <v>436</v>
-      </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="225"/>
-      <c r="I17" s="241" t="s">
-        <v>427</v>
-      </c>
-      <c r="J17" s="81"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="183" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="169"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="91">
+      <c r="B18" s="117">
         <f>B16+1</f>
         <v>6</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="126"/>
-      <c r="F18" s="119" t="s">
+      <c r="E18" s="180"/>
+      <c r="F18" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="120"/>
-      <c r="H18" s="225" t="s">
+      <c r="G18" s="169"/>
+      <c r="H18" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="238" t="s">
-        <v>277</v>
-      </c>
-      <c r="J18" s="81"/>
+      <c r="I18" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="J18" s="78"/>
     </row>
     <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="91">
+      <c r="B19" s="117">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="119" t="s">
+      <c r="E19" s="180"/>
+      <c r="F19" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="225" t="s">
+      <c r="G19" s="169"/>
+      <c r="H19" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="237" t="s">
-        <v>278</v>
-      </c>
-      <c r="J19" s="81"/>
+      <c r="I19" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="91">
+      <c r="B20" s="117">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="119" t="s">
+      <c r="E20" s="180"/>
+      <c r="F20" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="120"/>
-      <c r="H20" s="225" t="s">
+      <c r="G20" s="169"/>
+      <c r="H20" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="237" t="s">
-        <v>279</v>
-      </c>
-      <c r="J20" s="81"/>
+      <c r="I20" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88">
+      <c r="B21" s="116">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="127"/>
-      <c r="F21" s="124" t="s">
+      <c r="E21" s="199"/>
+      <c r="F21" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="227" t="s">
+      <c r="G21" s="189"/>
+      <c r="H21" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="I21" s="242" t="s">
-        <v>280</v>
-      </c>
-      <c r="J21" s="81"/>
+      <c r="I21" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="180">
+      <c r="B22" s="162">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="181" t="s">
+      <c r="C22" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="125" t="s">
+      <c r="E22" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="150" t="s">
+      <c r="F22" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="118"/>
-      <c r="H22" s="224" t="s">
+      <c r="G22" s="197"/>
+      <c r="H22" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="I22" s="243" t="s">
-        <v>281</v>
-      </c>
-      <c r="J22" s="81"/>
+      <c r="I22" s="149" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="175"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="123" t="s">
-        <v>435</v>
-      </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="225"/>
-      <c r="I23" s="237" t="s">
-        <v>439</v>
-      </c>
-      <c r="J23" s="81"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="168" t="s">
+        <v>434</v>
+      </c>
+      <c r="G23" s="169"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="96" t="s">
+        <v>438</v>
+      </c>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="91">
+      <c r="B24" s="117">
         <f>B22+1</f>
         <v>11</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="144" t="s">
+      <c r="E24" s="180"/>
+      <c r="F24" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="120"/>
-      <c r="H24" s="225" t="s">
+      <c r="G24" s="221"/>
+      <c r="H24" s="103" t="s">
+        <v>454</v>
+      </c>
+      <c r="I24" s="93" t="s">
         <v>455</v>
       </c>
-      <c r="I24" s="237" t="s">
-        <v>456</v>
-      </c>
-      <c r="J24" s="81"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="91">
+      <c r="B25" s="117">
         <f>B24+1</f>
         <v>12</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="119" t="s">
+      <c r="E25" s="180"/>
+      <c r="F25" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="120"/>
-      <c r="H25" s="225" t="s">
+      <c r="G25" s="169"/>
+      <c r="H25" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="I25" s="237" t="s">
-        <v>282</v>
-      </c>
-      <c r="J25" s="81"/>
-    </row>
-    <row r="26" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="100"/>
-      <c r="C26" s="102" t="s">
-        <v>407</v>
-      </c>
-      <c r="D26" s="87" t="s">
+      <c r="I25" s="93" t="s">
+        <v>281</v>
+      </c>
+      <c r="J25" s="78"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="118"/>
+      <c r="C26" s="126" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26" s="140" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" s="180"/>
+      <c r="F26" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="169"/>
+      <c r="H26" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="99" t="s">
+        <v>308</v>
+      </c>
+      <c r="J26" s="78"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="118"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="137" t="s">
         <v>459</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="145" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="147"/>
-      <c r="H26" s="225" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="241" t="s">
-        <v>309</v>
-      </c>
-      <c r="J26" s="81"/>
-    </row>
-    <row r="27" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="82" t="s">
+      <c r="E27" s="180"/>
+      <c r="F27" s="183" t="s">
         <v>460</v>
       </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="145" t="s">
+      <c r="G27" s="169"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="115" t="s">
         <v>461</v>
       </c>
-      <c r="G27" s="146"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="244" t="s">
-        <v>462</v>
-      </c>
-      <c r="J27" s="81"/>
+      <c r="J27" s="78"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="88">
+      <c r="B28" s="116">
         <f>B25+1</f>
         <v>13</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="124" t="s">
+      <c r="E28" s="199"/>
+      <c r="F28" s="243" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="226" t="s">
-        <v>283</v>
-      </c>
-      <c r="I28" s="242" t="s">
-        <v>410</v>
-      </c>
-      <c r="J28" s="81"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="I28" s="150" t="s">
+        <v>409</v>
+      </c>
+      <c r="J28" s="78"/>
     </row>
     <row r="29" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="94">
+      <c r="B29" s="119">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="125" t="s">
+      <c r="E29" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="150" t="s">
+      <c r="F29" s="203" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="118"/>
-      <c r="H29" s="224" t="s">
+      <c r="G29" s="197"/>
+      <c r="H29" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="243" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" s="81"/>
+      <c r="I29" s="149" t="s">
+        <v>283</v>
+      </c>
+      <c r="J29" s="78"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="88">
+      <c r="B30" s="116">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="127"/>
-      <c r="F30" s="121" t="s">
-        <v>411</v>
-      </c>
-      <c r="G30" s="122"/>
-      <c r="H30" s="227" t="s">
+      <c r="E30" s="199"/>
+      <c r="F30" s="188" t="s">
+        <v>410</v>
+      </c>
+      <c r="G30" s="189"/>
+      <c r="H30" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="I30" s="239" t="s">
-        <v>285</v>
-      </c>
-      <c r="J30" s="81"/>
+      <c r="I30" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="78"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="88">
+      <c r="B31" s="120">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="99" t="s">
-        <v>391</v>
-      </c>
-      <c r="F31" s="121" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" s="122"/>
-      <c r="H31" s="226" t="s">
+      <c r="E31" s="145" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="190" t="s">
+        <v>313</v>
+      </c>
+      <c r="G31" s="191"/>
+      <c r="H31" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="239" t="s">
-        <v>286</v>
-      </c>
-      <c r="J31" s="81"/>
+      <c r="I31" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="94">
+      <c r="B32" s="119">
         <f>B31+1</f>
         <v>17</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="125" t="s">
+      <c r="E32" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="117" t="s">
+      <c r="F32" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="118"/>
-      <c r="H32" s="224" t="s">
+      <c r="G32" s="197"/>
+      <c r="H32" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="240" t="s">
-        <v>287</v>
-      </c>
-      <c r="J32" s="81"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="174">
+      <c r="I32" s="149" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" s="78"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="170">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="191" t="s">
+      <c r="D33" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="123" t="s">
+      <c r="E33" s="180"/>
+      <c r="F33" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="120"/>
-      <c r="H33" s="225" t="s">
+      <c r="G33" s="169"/>
+      <c r="H33" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="245" t="s">
-        <v>486</v>
-      </c>
-      <c r="J33" s="81"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="175"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="123" t="s">
-        <v>438</v>
-      </c>
-      <c r="G34" s="165"/>
-      <c r="H34" s="229"/>
-      <c r="I34" s="246" t="s">
+      <c r="I33" s="92" t="s">
+        <v>485</v>
+      </c>
+      <c r="J33" s="78"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="168" t="s">
         <v>437</v>
       </c>
-      <c r="J34" s="81"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="J34" s="78"/>
     </row>
     <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="91">
+      <c r="B35" s="117">
         <f>B33+1</f>
         <v>19</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="119" t="s">
-        <v>311</v>
-      </c>
-      <c r="G35" s="120"/>
-      <c r="H35" s="225" t="s">
+      <c r="E35" s="180"/>
+      <c r="F35" s="183" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" s="169"/>
+      <c r="H35" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="247" t="s">
-        <v>288</v>
-      </c>
-      <c r="J35" s="81"/>
+      <c r="I35" s="92" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" s="78"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="88">
+      <c r="B36" s="116">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="127"/>
-      <c r="F36" s="124" t="s">
+      <c r="E36" s="199"/>
+      <c r="F36" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="122"/>
-      <c r="H36" s="227" t="s">
+      <c r="G36" s="189"/>
+      <c r="H36" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="242" t="s">
-        <v>289</v>
-      </c>
-      <c r="J36" s="81"/>
+      <c r="I36" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" s="78"/>
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="94">
+      <c r="B37" s="121">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="125" t="s">
-        <v>457</v>
-      </c>
-      <c r="F37" s="117" t="s">
+      <c r="E37" s="180" t="s">
+        <v>456</v>
+      </c>
+      <c r="F37" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="118"/>
-      <c r="H37" s="224" t="s">
+      <c r="G37" s="193"/>
+      <c r="H37" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="235" t="s">
-        <v>290</v>
-      </c>
-      <c r="J37" s="81"/>
+      <c r="I37" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" s="78"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="100">
+      <c r="B38" s="118">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="126"/>
-      <c r="F38" s="148" t="s">
+      <c r="E38" s="180"/>
+      <c r="F38" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="149"/>
-      <c r="H38" s="228" t="s">
+      <c r="G38" s="182"/>
+      <c r="H38" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="I38" s="248" t="s">
-        <v>291</v>
-      </c>
-      <c r="J38" s="81"/>
+      <c r="I38" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" s="78"/>
     </row>
     <row r="39" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="94">
+      <c r="B39" s="119">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="157" t="s">
+      <c r="E39" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="151" t="s">
-        <v>393</v>
-      </c>
-      <c r="G39" s="152"/>
-      <c r="H39" s="224" t="s">
+      <c r="F39" s="203" t="s">
+        <v>392</v>
+      </c>
+      <c r="G39" s="197"/>
+      <c r="H39" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="235" t="s">
-        <v>292</v>
-      </c>
-      <c r="J39" s="81"/>
+      <c r="I39" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="91">
+      <c r="B40" s="117">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="158"/>
-      <c r="F40" s="153" t="s">
-        <v>403</v>
-      </c>
-      <c r="G40" s="154"/>
-      <c r="H40" s="225" t="s">
+      <c r="E40" s="201"/>
+      <c r="F40" s="183" t="s">
+        <v>402</v>
+      </c>
+      <c r="G40" s="169"/>
+      <c r="H40" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="I40" s="238" t="s">
+      <c r="I40" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" s="78"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="116">
+        <v>26</v>
+      </c>
+      <c r="C41" s="133" t="s">
+        <v>457</v>
+      </c>
+      <c r="D41" s="136" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" s="202"/>
+      <c r="F41" s="188" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" s="189"/>
+      <c r="H41" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="J41" s="78"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="178">
+        <v>27</v>
+      </c>
+      <c r="C42" s="179" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="180" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="198" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="193"/>
+      <c r="H42" s="109" t="s">
+        <v>233</v>
+      </c>
+      <c r="I42" s="152" t="s">
         <v>293</v>
       </c>
-      <c r="J40" s="81"/>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="88">
-        <v>26</v>
-      </c>
-      <c r="C41" s="101" t="s">
-        <v>458</v>
-      </c>
-      <c r="D41" s="90" t="s">
-        <v>405</v>
-      </c>
-      <c r="E41" s="159"/>
-      <c r="F41" s="160" t="s">
-        <v>313</v>
-      </c>
-      <c r="G41" s="161"/>
-      <c r="H41" s="227" t="s">
-        <v>148</v>
-      </c>
-      <c r="I41" s="242" t="s">
-        <v>400</v>
-      </c>
-      <c r="J41" s="81"/>
-    </row>
-    <row r="42" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="185">
-        <v>27</v>
-      </c>
-      <c r="C42" s="187" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="179" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="156"/>
-      <c r="H42" s="230" t="s">
-        <v>233</v>
-      </c>
-      <c r="I42" s="249" t="s">
-        <v>294</v>
-      </c>
-      <c r="J42" s="81"/>
+      <c r="J42" s="78"/>
     </row>
     <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="186"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="121" t="s">
-        <v>432</v>
-      </c>
-      <c r="G43" s="162"/>
-      <c r="H43" s="226"/>
-      <c r="I43" s="242" t="s">
-        <v>429</v>
-      </c>
-      <c r="J43" s="81"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="181" t="s">
+        <v>431</v>
+      </c>
+      <c r="G43" s="182"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="100" t="s">
+        <v>428</v>
+      </c>
+      <c r="J43" s="78"/>
     </row>
     <row r="44" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="94">
+      <c r="B44" s="119">
         <f>B42+1</f>
         <v>28</v>
       </c>
-      <c r="C44" s="98" t="s">
+      <c r="C44" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="125" t="s">
+      <c r="E44" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="117" t="s">
-        <v>406</v>
-      </c>
-      <c r="G44" s="118"/>
-      <c r="H44" s="231" t="s">
+      <c r="F44" s="196" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" s="197"/>
+      <c r="H44" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="I44" s="240" t="s">
-        <v>295</v>
-      </c>
-      <c r="J44" s="81"/>
+      <c r="I44" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" s="78"/>
     </row>
     <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="91">
+      <c r="B45" s="117">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="126"/>
-      <c r="F45" s="119" t="s">
+      <c r="E45" s="180"/>
+      <c r="F45" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="120"/>
-      <c r="H45" s="232" t="s">
+      <c r="G45" s="169"/>
+      <c r="H45" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="I45" s="238" t="s">
-        <v>296</v>
-      </c>
-      <c r="J45" s="81"/>
+      <c r="I45" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" s="78"/>
     </row>
     <row r="46" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="91">
+      <c r="B46" s="117">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="126"/>
-      <c r="F46" s="119" t="s">
+      <c r="E46" s="180"/>
+      <c r="F46" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="120"/>
-      <c r="H46" s="232" t="s">
+      <c r="G46" s="169"/>
+      <c r="H46" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="238" t="s">
-        <v>297</v>
-      </c>
-      <c r="J46" s="81"/>
+      <c r="I46" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" s="78"/>
     </row>
     <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="88">
+      <c r="B47" s="116">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="C47" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="93" t="s">
+      <c r="D47" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="127"/>
-      <c r="F47" s="124" t="s">
+      <c r="E47" s="199"/>
+      <c r="F47" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="122"/>
-      <c r="H47" s="233" t="s">
+      <c r="G47" s="189"/>
+      <c r="H47" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="I47" s="239" t="s">
-        <v>298</v>
-      </c>
-      <c r="J47" s="81"/>
+      <c r="I47" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="J47" s="78"/>
     </row>
     <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="94">
+      <c r="B48" s="121">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="125" t="s">
+      <c r="E48" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="150" t="s">
+      <c r="F48" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="118"/>
-      <c r="H48" s="224" t="s">
+      <c r="G48" s="193"/>
+      <c r="H48" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="I48" s="235" t="s">
-        <v>299</v>
-      </c>
-      <c r="J48" s="81"/>
+      <c r="I48" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" s="78"/>
     </row>
     <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="91">
+      <c r="B49" s="117">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="78" t="s">
+      <c r="D49" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="126"/>
-      <c r="F49" s="163" t="s">
-        <v>426</v>
-      </c>
-      <c r="G49" s="164"/>
-      <c r="H49" s="225"/>
-      <c r="I49" s="241" t="s">
+      <c r="E49" s="180"/>
+      <c r="F49" s="183" t="s">
         <v>425</v>
       </c>
-      <c r="J49" s="81"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="J49" s="78"/>
     </row>
     <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="91">
+      <c r="B50" s="117">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="123" t="s">
-        <v>404</v>
-      </c>
-      <c r="G50" s="120"/>
-      <c r="H50" s="225" t="s">
+      <c r="C50" s="123"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="183" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" s="169"/>
+      <c r="H50" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I50" s="238" t="s">
-        <v>377</v>
-      </c>
-      <c r="J50" s="81"/>
+      <c r="I50" s="92" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" s="78"/>
     </row>
     <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="91">
+      <c r="B51" s="118">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="93" t="s">
+      <c r="D51" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="127"/>
-      <c r="F51" s="121" t="s">
+      <c r="E51" s="180"/>
+      <c r="F51" s="194" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="162"/>
-      <c r="H51" s="227" t="s">
+      <c r="G51" s="182"/>
+      <c r="H51" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="239" t="s">
-        <v>389</v>
-      </c>
-      <c r="J51" s="81"/>
+      <c r="I51" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="J51" s="78"/>
     </row>
     <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="94">
+      <c r="B52" s="119">
         <f>B51+1</f>
         <v>36</v>
       </c>
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="96" t="s">
+      <c r="D52" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="125" t="s">
+      <c r="E52" s="195" t="s">
         <v>86</v>
       </c>
-      <c r="F52" s="150" t="s">
+      <c r="F52" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="118"/>
-      <c r="H52" s="224" t="s">
+      <c r="G52" s="197"/>
+      <c r="H52" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="I52" s="235" t="s">
-        <v>300</v>
-      </c>
-      <c r="J52" s="81"/>
+      <c r="I52" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="J52" s="78"/>
     </row>
     <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="91">
+      <c r="B53" s="117">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="D53" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="E53" s="126"/>
-      <c r="F53" s="119" t="s">
-        <v>312</v>
-      </c>
-      <c r="G53" s="120"/>
-      <c r="H53" s="225" t="s">
+      <c r="E53" s="180"/>
+      <c r="F53" s="183" t="s">
+        <v>311</v>
+      </c>
+      <c r="G53" s="169"/>
+      <c r="H53" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="I53" s="237" t="s">
-        <v>301</v>
-      </c>
-      <c r="J53" s="81"/>
+      <c r="I53" s="93" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" s="78"/>
     </row>
     <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="88">
+      <c r="B54" s="118">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="93" t="s">
+      <c r="D54" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="127"/>
-      <c r="F54" s="124" t="s">
+      <c r="E54" s="180"/>
+      <c r="F54" s="194" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="122"/>
-      <c r="H54" s="227" t="s">
+      <c r="G54" s="182"/>
+      <c r="H54" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="I54" s="242" t="s">
-        <v>303</v>
-      </c>
-      <c r="J54" s="81"/>
-    </row>
-    <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="94">
+      <c r="I54" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="J54" s="78"/>
+    </row>
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="120">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="108" t="s">
+      <c r="D55" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="109" t="s">
+      <c r="E55" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="117" t="s">
+      <c r="F55" s="190" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="118"/>
-      <c r="H55" s="224" t="s">
+      <c r="G55" s="191"/>
+      <c r="H55" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="240" t="s">
-        <v>304</v>
-      </c>
-      <c r="J55" s="81"/>
+      <c r="I55" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="J55" s="78"/>
     </row>
     <row r="56" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="91">
+      <c r="B56" s="121">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C56" s="77" t="s">
+      <c r="C56" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="107" t="s">
+      <c r="D56" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="110" t="s">
+      <c r="E56" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="119" t="s">
+      <c r="F56" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="165"/>
-      <c r="H56" s="225" t="s">
+      <c r="G56" s="193"/>
+      <c r="H56" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="I56" s="238" t="s">
-        <v>305</v>
-      </c>
-      <c r="J56" s="81"/>
+      <c r="I56" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="J56" s="78"/>
     </row>
     <row r="57" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="91">
+      <c r="B57" s="117">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="107" t="s">
+      <c r="D57" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="110" t="s">
+      <c r="E57" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="119" t="s">
+      <c r="F57" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="G57" s="120"/>
-      <c r="H57" s="225" t="s">
+      <c r="G57" s="169"/>
+      <c r="H57" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="I57" s="237" t="s">
-        <v>306</v>
-      </c>
-      <c r="J57" s="81"/>
+      <c r="I57" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="J57" s="78"/>
     </row>
     <row r="58" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="91">
+      <c r="B58" s="117">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C58" s="77" t="s">
+      <c r="C58" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="107" t="s">
+      <c r="D58" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="110" t="s">
+      <c r="E58" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="119" t="s">
+      <c r="F58" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="120"/>
-      <c r="H58" s="225" t="s">
+      <c r="G58" s="169"/>
+      <c r="H58" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="I58" s="237" t="s">
-        <v>307</v>
-      </c>
-      <c r="J58" s="81"/>
+      <c r="I58" s="93" t="s">
+        <v>306</v>
+      </c>
+      <c r="J58" s="78"/>
     </row>
     <row r="59" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="91">
+      <c r="B59" s="117">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="107" t="s">
+      <c r="D59" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="110"/>
-      <c r="F59" s="166" t="s">
+      <c r="E59" s="147"/>
+      <c r="F59" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="154"/>
-      <c r="H59" s="225" t="s">
+      <c r="G59" s="169"/>
+      <c r="H59" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="I59" s="238"/>
-      <c r="J59" s="81"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="78"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="91">
+      <c r="B60" s="117">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="110"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="234"/>
-      <c r="I60" s="255"/>
-      <c r="J60" s="81"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="225"/>
+      <c r="G60" s="226"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="78"/>
     </row>
     <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="91">
+      <c r="B61" s="117">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="85"/>
-      <c r="F61" s="167" t="s">
+      <c r="E61" s="146"/>
+      <c r="F61" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="147"/>
-      <c r="H61" s="225" t="s">
+      <c r="G61" s="169"/>
+      <c r="H61" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="I61" s="238"/>
-      <c r="J61" s="81"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="78"/>
     </row>
     <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="91">
+      <c r="B62" s="117">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C62" s="86" t="s">
-        <v>382</v>
-      </c>
-      <c r="D62" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="E62" s="85" t="s">
+      <c r="C62" s="135" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" s="139" t="s">
+        <v>381</v>
+      </c>
+      <c r="E62" s="146" t="s">
+        <v>373</v>
+      </c>
+      <c r="F62" s="183" t="s">
         <v>374</v>
       </c>
-      <c r="F62" s="168" t="s">
-        <v>375</v>
-      </c>
-      <c r="G62" s="147"/>
-      <c r="H62" s="225"/>
-      <c r="I62" s="237" t="s">
-        <v>388</v>
-      </c>
-      <c r="J62" s="81"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="93" t="s">
+        <v>387</v>
+      </c>
+      <c r="J62" s="78"/>
     </row>
     <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="91">
+      <c r="B63" s="117">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C63" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="D63" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="E63" s="85" t="s">
-        <v>387</v>
-      </c>
-      <c r="F63" s="168" t="s">
+      <c r="C63" s="135" t="s">
         <v>386</v>
       </c>
-      <c r="G63" s="173"/>
-      <c r="H63" s="225"/>
-      <c r="I63" s="238" t="s">
+      <c r="D63" s="139" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="146" t="s">
+        <v>386</v>
+      </c>
+      <c r="F63" s="183" t="s">
         <v>385</v>
       </c>
-      <c r="J63" s="81"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="92" t="s">
+        <v>384</v>
+      </c>
+      <c r="J63" s="78"/>
     </row>
     <row r="64" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="91">
+      <c r="B64" s="117">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C64" s="86" t="s">
-        <v>421</v>
-      </c>
-      <c r="D64" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="E64" s="85" t="s">
-        <v>421</v>
-      </c>
-      <c r="F64" s="168" t="s">
+      <c r="C64" s="135" t="s">
         <v>420</v>
       </c>
-      <c r="G64" s="173"/>
-      <c r="H64" s="225"/>
-      <c r="I64" s="237" t="s">
+      <c r="D64" s="139" t="s">
+        <v>420</v>
+      </c>
+      <c r="E64" s="146" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="183" t="s">
         <v>419</v>
       </c>
-      <c r="J64" s="81"/>
+      <c r="G64" s="169"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="93" t="s">
+        <v>418</v>
+      </c>
+      <c r="J64" s="78"/>
     </row>
     <row r="65" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="88">
-        <f t="shared" si="0"/>
+      <c r="B65" s="116">
+        <f>B64+1</f>
         <v>49</v>
       </c>
-      <c r="C65" s="101" t="s">
+      <c r="C65" s="133" t="s">
+        <v>393</v>
+      </c>
+      <c r="D65" s="136" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" s="148" t="s">
+        <v>393</v>
+      </c>
+      <c r="F65" s="188" t="s">
         <v>394</v>
       </c>
-      <c r="D65" s="111" t="s">
-        <v>394</v>
-      </c>
-      <c r="E65" s="256" t="s">
-        <v>394</v>
-      </c>
-      <c r="F65" s="124" t="s">
-        <v>395</v>
-      </c>
-      <c r="G65" s="122"/>
-      <c r="H65" s="227"/>
-      <c r="I65" s="242" t="s">
-        <v>302</v>
-      </c>
-      <c r="J65" s="81"/>
+      <c r="G65" s="189"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="J65" s="78"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="12"/>
@@ -5190,8 +5399,8 @@
       <c r="B67" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="169"/>
-      <c r="D67" s="170"/>
+      <c r="C67" s="184"/>
+      <c r="D67" s="185"/>
       <c r="E67" s="16" t="s">
         <v>93</v>
       </c>
@@ -5200,9 +5409,9 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="171"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
+      <c r="B68" s="186"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="187"/>
       <c r="E68" s="17"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -5210,7 +5419,7 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="34"/>
@@ -5243,90 +5452,6 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F2:I6"/>
     <mergeCell ref="F8:G8"/>
@@ -5343,105 +5468,119 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I32" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I36" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I38" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I44" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I53" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="I65" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I55" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F62" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F53" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F56" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F44" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F26" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F22" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F28" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F33" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F35" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F36" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F38" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F40" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F55" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F61" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F63" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I41" r:id="rId56" display="Le0p@rd02020" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I62" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H42" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H13" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I28" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H44" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="I64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F51" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="I51" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F49" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="I49" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I58" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F39" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F41" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F29" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I11" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I54" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F54" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I20" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F20" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I42" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F42" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I29" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F12" r:id="rId81" xr:uid="{16A89DF5-314B-4456-95DB-AFAC7FA45019}"/>
-    <hyperlink ref="F10" r:id="rId82" xr:uid="{DBE8A7D5-9C1C-4FFB-BD06-09EDED3FDE3D}"/>
-    <hyperlink ref="F17" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F16" r:id="rId84" xr:uid="{64330F6F-96E4-49A0-A2A4-0F6B0A08D554}"/>
-    <hyperlink ref="I16" r:id="rId85" display="Pl@t1num2020" xr:uid="{29D2C30A-78BA-454C-A061-8F2882F691F3}"/>
-    <hyperlink ref="I24" r:id="rId86" display="C@pr1c0rn2020" xr:uid="{E80C1D1C-8BFF-4987-A58C-8C146996C2C2}"/>
-    <hyperlink ref="F23" r:id="rId87" xr:uid="{E920E7BF-B5AF-4E02-9277-2FB0AC7866E6}"/>
-    <hyperlink ref="F43" r:id="rId88" xr:uid="{B591C870-4659-4454-A3BB-31EDF96372F8}"/>
-    <hyperlink ref="F15" r:id="rId89" xr:uid="{58F189EF-01D3-4EEA-9EFB-3C4DDC4093DF}"/>
-    <hyperlink ref="F34" r:id="rId90" xr:uid="{9DF22BF1-6D88-4039-B2FA-ED7C2D0CEA0D}"/>
-    <hyperlink ref="F27" r:id="rId91" xr:uid="{82CDCEB0-ED0E-4B30-82FC-FFDD6961C60B}"/>
-    <hyperlink ref="I27" r:id="rId92" xr:uid="{613D620F-272F-47E9-8898-C78C18E956BE}"/>
+    <hyperlink ref="F29" r:id="rId1" xr:uid="{25BAC7EE-A344-4134-9E50-501CE75AF7E9}"/>
+    <hyperlink ref="I29" r:id="rId2" xr:uid="{07670036-BB56-4087-A7C1-F158F29EC3FE}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{6E62CBE9-7F9F-4C75-9A41-C69617A14AF8}"/>
+    <hyperlink ref="I14" r:id="rId4" xr:uid="{C747C137-9545-442B-A6F0-C74AF9325B27}"/>
+    <hyperlink ref="F15" r:id="rId5" xr:uid="{CECDC0D5-5964-4433-9216-08F8BB5E407A}"/>
+    <hyperlink ref="F23" r:id="rId6" xr:uid="{3C079553-5CA6-4093-ABEE-5C7E0F5A5A91}"/>
+    <hyperlink ref="F28" r:id="rId7" xr:uid="{A218523B-772B-4642-AFD0-AAC40EBA31EB}"/>
+    <hyperlink ref="I28" r:id="rId8" xr:uid="{BD6F457D-33F9-4B44-8CCD-4106253B68B8}"/>
+    <hyperlink ref="I22" r:id="rId9" xr:uid="{A646CA20-BE2B-4179-A2E1-18F86927B0D9}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{AC6FF5C2-5562-4F4F-845F-7BBC83675468}"/>
+    <hyperlink ref="F42" r:id="rId11" xr:uid="{97C54D17-8816-4EA5-95EC-208E74B24998}"/>
+    <hyperlink ref="I42" r:id="rId12" xr:uid="{DC1D754B-327A-49E6-BCC6-207F4B836638}"/>
+    <hyperlink ref="F43" r:id="rId13" xr:uid="{4C200D0B-345B-4B66-8162-09E10135A2A1}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{0E787DBD-8F5A-4E0F-9BB3-4071D49F7B6E}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{8922D76E-1672-4E6A-ABF6-CE248FB52D5D}"/>
+    <hyperlink ref="F10" r:id="rId16" xr:uid="{B83E037E-1DEF-41C4-8F6E-E21447F2526E}"/>
+    <hyperlink ref="F34" r:id="rId17" xr:uid="{EFD5205B-7D02-475A-A25F-89B6AAD4A657}"/>
+    <hyperlink ref="F32" r:id="rId18" xr:uid="{B4902841-D664-4D5D-AD82-683148E78FD7}"/>
+    <hyperlink ref="I32" r:id="rId19" xr:uid="{10EA747F-67EF-424E-9A6F-13FC290282C1}"/>
+    <hyperlink ref="F33" r:id="rId20" xr:uid="{3D92F738-5EEB-43BE-B564-CE9086273E66}"/>
+    <hyperlink ref="F46" r:id="rId21" xr:uid="{C7CF1CF9-3AA1-4AB9-B297-7F699AA205C9}"/>
+    <hyperlink ref="F39" r:id="rId22" xr:uid="{CF4CD40C-9B5A-44FC-8E4C-C2DF315877F2}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId93"/>
-  <drawing r:id="rId94"/>
+  <pageSetup scale="46" orientation="landscape" r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -5464,152 +5603,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="D1" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="252" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="104" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>484</v>
-      </c>
-      <c r="F1" s="104" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="B2" s="79" t="s">
         <v>466</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="C2" s="252" t="s">
         <v>467</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="D2" s="80" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="E2" s="246" t="s">
         <v>469</v>
       </c>
-      <c r="E2" s="196" t="s">
+      <c r="F2" s="246" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="252"/>
+      <c r="B3" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="F2" s="196" t="s">
+      <c r="C3" s="252"/>
+      <c r="D3" s="79" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="252"/>
+      <c r="F3" s="246"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="244" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="252" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="246" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" s="247" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="245"/>
+      <c r="B5" s="79" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="252"/>
+      <c r="D5" s="79" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="252"/>
+      <c r="F5" s="248"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="244" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="252" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="252" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="249" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="201"/>
-      <c r="B3" s="104" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="104" t="s">
+    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="245"/>
+      <c r="B7" s="79" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="252"/>
+      <c r="D7" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="252"/>
+      <c r="F7" s="250"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="244" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="201"/>
-      <c r="F3" s="196"/>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="194" t="s">
-        <v>473</v>
-      </c>
-      <c r="B4" s="104" t="s">
+      <c r="B8" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="252" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="201" t="s">
-        <v>468</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>469</v>
-      </c>
-      <c r="E4" s="196" t="s">
-        <v>474</v>
-      </c>
-      <c r="F4" s="197" t="s">
+      <c r="D8" s="79" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="246" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="251" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195"/>
-      <c r="B5" s="104" t="s">
-        <v>471</v>
-      </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="104" t="s">
-        <v>472</v>
-      </c>
-      <c r="E5" s="201"/>
-      <c r="F5" s="112"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="194" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="201" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" s="104" t="s">
-        <v>476</v>
-      </c>
-      <c r="E6" s="201" t="s">
+    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="245"/>
+      <c r="B9" s="79" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="252"/>
+      <c r="D9" s="79" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="198" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="104" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="104" t="s">
-        <v>478</v>
-      </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="199"/>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="194" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>475</v>
-      </c>
-      <c r="C8" s="201" t="s">
-        <v>468</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>476</v>
-      </c>
-      <c r="E8" s="196" t="s">
-        <v>479</v>
-      </c>
-      <c r="F8" s="200" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="104" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" s="201"/>
-      <c r="D9" s="104" t="s">
-        <v>478</v>
-      </c>
-      <c r="E9" s="201"/>
-      <c r="F9" s="199"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5651,8 +5790,8 @@
   </sheetPr>
   <dimension ref="B2:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="E24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5670,68 +5809,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="134">
+      <c r="B2" s="256"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="262">
         <f ca="1">TODAY()</f>
-        <v>44400</v>
-      </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
+        <v>44410</v>
+      </c>
+      <c r="E2" s="263"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
     </row>
     <row r="3" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="136" t="s">
+      <c r="B3" s="258"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="138" t="s">
+      <c r="B4" s="258"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
     </row>
     <row r="5" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="140" t="s">
+      <c r="B5" s="258"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="268" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -5754,10 +5893,10 @@
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="214" t="s">
+      <c r="F8" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="215"/>
+      <c r="G8" s="276"/>
       <c r="H8" s="40" t="s">
         <v>187</v>
       </c>
@@ -5778,13 +5917,13 @@
       <c r="D9" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="211" t="s">
+      <c r="E9" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="206" t="s">
+      <c r="F9" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="207"/>
+      <c r="G9" s="254"/>
       <c r="H9" s="41" t="s">
         <v>203</v>
       </c>
@@ -5806,21 +5945,21 @@
       <c r="D10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="212"/>
-      <c r="F10" s="206" t="s">
+      <c r="E10" s="278"/>
+      <c r="F10" s="255" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="207"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="250"/>
+        <v>370</v>
+      </c>
+      <c r="K10" s="82"/>
       <c r="L10" s="70"/>
       <c r="M10" s="70"/>
       <c r="N10" s="70"/>
@@ -5834,11 +5973,11 @@
       <c r="D11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="213"/>
-      <c r="F11" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="G11" s="207"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="253" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="254"/>
       <c r="H11" s="55" t="s">
         <v>11</v>
       </c>
@@ -5846,9 +5985,9 @@
         <v>204</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="K11" s="250"/>
+        <v>241</v>
+      </c>
+      <c r="K11" s="82"/>
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
       <c r="N11" s="70"/>
@@ -5864,13 +6003,13 @@
       <c r="D12" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="210" t="s">
+      <c r="E12" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="206" t="s">
+      <c r="F12" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="207"/>
+      <c r="G12" s="254"/>
       <c r="H12" s="6" t="s">
         <v>188</v>
       </c>
@@ -5878,7 +6017,7 @@
         <v>205</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L12" s="70"/>
       <c r="M12" s="70"/>
@@ -5895,19 +6034,19 @@
       <c r="D13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="206" t="s">
+      <c r="E13" s="273"/>
+      <c r="F13" s="255" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="207"/>
+      <c r="G13" s="254"/>
       <c r="H13" s="41" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L13" s="70"/>
       <c r="M13" s="70"/>
@@ -5924,19 +6063,19 @@
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="206" t="s">
+      <c r="E14" s="273"/>
+      <c r="F14" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="207"/>
+      <c r="G14" s="254"/>
       <c r="H14" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>206</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L14" s="70"/>
       <c r="M14" s="70"/>
@@ -5953,11 +6092,11 @@
       <c r="D15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="208"/>
-      <c r="F15" s="123" t="s">
+      <c r="E15" s="273"/>
+      <c r="F15" s="253" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="207"/>
+      <c r="G15" s="254"/>
       <c r="H15" s="58" t="s">
         <v>104</v>
       </c>
@@ -5965,7 +6104,7 @@
         <v>207</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L15" s="70"/>
       <c r="M15" s="70"/>
@@ -5982,11 +6121,11 @@
       <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="208"/>
-      <c r="F16" s="206" t="s">
+      <c r="E16" s="273"/>
+      <c r="F16" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="207"/>
+      <c r="G16" s="254"/>
       <c r="H16" s="6" t="s">
         <v>197</v>
       </c>
@@ -5994,7 +6133,7 @@
         <v>208</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
@@ -6008,11 +6147,11 @@
       <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="209"/>
-      <c r="F17" s="206" t="s">
+      <c r="E17" s="274"/>
+      <c r="F17" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="207"/>
+      <c r="G17" s="254"/>
       <c r="H17" s="58" t="s">
         <v>25</v>
       </c>
@@ -6020,7 +6159,7 @@
         <v>209</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L17" s="70"/>
       <c r="M17" s="70"/>
@@ -6037,13 +6176,13 @@
       <c r="D18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="210" t="s">
+      <c r="E18" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="207"/>
+      <c r="G18" s="254"/>
       <c r="H18" s="6" t="s">
         <v>156</v>
       </c>
@@ -6051,7 +6190,7 @@
         <v>155</v>
       </c>
       <c r="J18" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L18" s="70"/>
       <c r="M18" s="70"/>
@@ -6068,19 +6207,19 @@
       <c r="D19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="208"/>
-      <c r="F19" s="206" t="s">
+      <c r="E19" s="273"/>
+      <c r="F19" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="207"/>
+      <c r="G19" s="254"/>
       <c r="H19" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>171</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L19" s="70"/>
       <c r="M19" s="70"/>
@@ -6097,11 +6236,11 @@
       <c r="D20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="206" t="s">
+      <c r="E20" s="273"/>
+      <c r="F20" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="207"/>
+      <c r="G20" s="254"/>
       <c r="H20" s="6" t="s">
         <v>154</v>
       </c>
@@ -6111,7 +6250,7 @@
       <c r="J20" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="250"/>
+      <c r="K20" s="82"/>
       <c r="L20" s="70"/>
       <c r="M20" s="70"/>
       <c r="N20" s="70"/>
@@ -6127,11 +6266,11 @@
       <c r="D21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="209"/>
-      <c r="F21" s="206" t="s">
+      <c r="E21" s="274"/>
+      <c r="F21" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="207"/>
+      <c r="G21" s="254"/>
       <c r="H21" s="6" t="s">
         <v>109</v>
       </c>
@@ -6139,10 +6278,10 @@
         <v>230</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="K21" s="250"/>
-      <c r="L21" s="251"/>
+        <v>249</v>
+      </c>
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="70"/>
       <c r="N21" s="70"/>
     </row>
@@ -6157,21 +6296,21 @@
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="210" t="s">
+      <c r="E22" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="206" t="s">
+      <c r="F22" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G22" s="207"/>
+      <c r="G22" s="254"/>
       <c r="H22" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L22" s="70"/>
       <c r="M22" s="70"/>
@@ -6188,19 +6327,19 @@
       <c r="D23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="209"/>
-      <c r="F23" s="206" t="s">
+      <c r="E23" s="274"/>
+      <c r="F23" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="207"/>
+      <c r="G23" s="254"/>
       <c r="H23" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>170</v>
       </c>
       <c r="J23" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L23" s="70"/>
       <c r="M23" s="70"/>
@@ -6217,13 +6356,13 @@
       <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="210" t="s">
+      <c r="E24" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="F24" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="207"/>
+      <c r="G24" s="254"/>
       <c r="H24" s="6" t="s">
         <v>196</v>
       </c>
@@ -6231,7 +6370,7 @@
         <v>158</v>
       </c>
       <c r="J24" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L24" s="70"/>
       <c r="M24" s="70"/>
@@ -6248,19 +6387,19 @@
       <c r="D25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="208"/>
-      <c r="F25" s="123" t="s">
+      <c r="E25" s="273"/>
+      <c r="F25" s="253" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="207"/>
+      <c r="G25" s="254"/>
       <c r="H25" s="58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>210</v>
       </c>
       <c r="J25" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L25" s="70"/>
       <c r="M25" s="70"/>
@@ -6277,13 +6416,13 @@
       <c r="D26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="210" t="s">
+      <c r="E26" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="206" t="s">
+      <c r="F26" s="255" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="207"/>
+      <c r="G26" s="254"/>
       <c r="H26" s="6" t="s">
         <v>190</v>
       </c>
@@ -6291,7 +6430,7 @@
         <v>159</v>
       </c>
       <c r="J26" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L26" s="70"/>
       <c r="M26" s="70"/>
@@ -6308,11 +6447,11 @@
       <c r="D27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="208"/>
-      <c r="F27" s="206" t="s">
+      <c r="E27" s="273"/>
+      <c r="F27" s="255" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="207"/>
+      <c r="G27" s="254"/>
       <c r="H27" s="6" t="s">
         <v>193</v>
       </c>
@@ -6320,7 +6459,7 @@
         <v>160</v>
       </c>
       <c r="J27" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
@@ -6337,19 +6476,19 @@
       <c r="D28" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="208"/>
-      <c r="F28" s="206" t="s">
-        <v>311</v>
-      </c>
-      <c r="G28" s="207"/>
+      <c r="E28" s="273"/>
+      <c r="F28" s="255" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" s="254"/>
       <c r="H28" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
@@ -6364,11 +6503,11 @@
       <c r="D29" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="209"/>
-      <c r="F29" s="206" t="s">
+      <c r="E29" s="274"/>
+      <c r="F29" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="207"/>
+      <c r="G29" s="254"/>
       <c r="H29" s="6" t="s">
         <v>56</v>
       </c>
@@ -6376,7 +6515,7 @@
         <v>161</v>
       </c>
       <c r="J29" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L29" s="70"/>
       <c r="M29" s="70"/>
@@ -6396,10 +6535,10 @@
       <c r="E30" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="206" t="s">
+      <c r="F30" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="207"/>
+      <c r="G30" s="254"/>
       <c r="H30" s="6" t="s">
         <v>195</v>
       </c>
@@ -6407,7 +6546,7 @@
         <v>162</v>
       </c>
       <c r="J30" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L30" s="70"/>
       <c r="M30" s="70"/>
@@ -6424,13 +6563,13 @@
       <c r="D31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="210" t="s">
+      <c r="E31" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="206" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="207"/>
+      <c r="F31" s="255" t="s">
+        <v>521</v>
+      </c>
+      <c r="G31" s="254"/>
       <c r="H31" s="41" t="s">
         <v>64</v>
       </c>
@@ -6438,7 +6577,7 @@
         <v>173</v>
       </c>
       <c r="J31" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L31" s="70"/>
       <c r="M31" s="70"/>
@@ -6455,11 +6594,11 @@
       <c r="D32" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="209"/>
-      <c r="F32" s="206" t="s">
+      <c r="E32" s="274"/>
+      <c r="F32" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="207"/>
+      <c r="G32" s="254"/>
       <c r="H32" s="58" t="s">
         <v>66</v>
       </c>
@@ -6467,7 +6606,7 @@
         <v>163</v>
       </c>
       <c r="J32" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L32" s="70"/>
       <c r="M32" s="70"/>
@@ -6487,10 +6626,10 @@
       <c r="E33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="206" t="s">
+      <c r="F33" s="255" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="207"/>
+      <c r="G33" s="254"/>
       <c r="H33" s="6" t="s">
         <v>191</v>
       </c>
@@ -6498,7 +6637,7 @@
         <v>164</v>
       </c>
       <c r="J33" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L33" s="70"/>
       <c r="M33" s="70"/>
@@ -6515,21 +6654,21 @@
       <c r="D34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="210" t="s">
+      <c r="E34" s="272" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="123" t="s">
+      <c r="F34" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="207"/>
+      <c r="G34" s="254"/>
       <c r="H34" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>166</v>
       </c>
       <c r="J34" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L34" s="70"/>
       <c r="M34" s="70"/>
@@ -6546,11 +6685,11 @@
       <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="208"/>
-      <c r="F35" s="206" t="s">
+      <c r="E35" s="273"/>
+      <c r="F35" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="207"/>
+      <c r="G35" s="254"/>
       <c r="H35" s="10" t="s">
         <v>165</v>
       </c>
@@ -6558,7 +6697,7 @@
         <v>211</v>
       </c>
       <c r="J35" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L35" s="70"/>
       <c r="M35" s="70"/>
@@ -6575,11 +6714,11 @@
       <c r="D36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="208"/>
-      <c r="F36" s="206" t="s">
+      <c r="E36" s="273"/>
+      <c r="F36" s="255" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="207"/>
+      <c r="G36" s="254"/>
       <c r="H36" s="10" t="s">
         <v>167</v>
       </c>
@@ -6587,7 +6726,7 @@
         <v>212</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L36" s="70"/>
       <c r="M36" s="70"/>
@@ -6604,11 +6743,11 @@
       <c r="D37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="209"/>
-      <c r="F37" s="206" t="s">
+      <c r="E37" s="274"/>
+      <c r="F37" s="255" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="207"/>
+      <c r="G37" s="254"/>
       <c r="H37" s="10" t="s">
         <v>168</v>
       </c>
@@ -6616,7 +6755,7 @@
         <v>213</v>
       </c>
       <c r="J37" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L37" s="70"/>
       <c r="M37" s="70"/>
@@ -6633,13 +6772,13 @@
       <c r="D38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="208" t="s">
+      <c r="E38" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="206" t="s">
+      <c r="F38" s="255" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="207"/>
+      <c r="G38" s="254"/>
       <c r="H38" s="41" t="s">
         <v>83</v>
       </c>
@@ -6647,7 +6786,7 @@
         <v>214</v>
       </c>
       <c r="J38" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L38" s="70"/>
       <c r="M38" s="70"/>
@@ -6664,11 +6803,11 @@
       <c r="D39" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="208"/>
-      <c r="F39" s="206" t="s">
+      <c r="E39" s="273"/>
+      <c r="F39" s="255" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="207"/>
+      <c r="G39" s="254"/>
       <c r="H39" s="55" t="s">
         <v>176</v>
       </c>
@@ -6676,7 +6815,7 @@
         <v>175</v>
       </c>
       <c r="J39" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L39" s="70"/>
       <c r="M39" s="70"/>
@@ -6693,11 +6832,11 @@
       <c r="D40" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="209"/>
-      <c r="F40" s="206" t="s">
+      <c r="E40" s="274"/>
+      <c r="F40" s="255" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="207"/>
+      <c r="G40" s="254"/>
       <c r="H40" s="41" t="s">
         <v>133</v>
       </c>
@@ -6705,7 +6844,7 @@
         <v>172</v>
       </c>
       <c r="J40" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L40" s="70"/>
       <c r="M40" s="70"/>
@@ -6722,13 +6861,13 @@
       <c r="D41" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="210" t="s">
+      <c r="E41" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="206" t="s">
+      <c r="F41" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="207"/>
+      <c r="G41" s="254"/>
       <c r="H41" s="6" t="s">
         <v>194</v>
       </c>
@@ -6736,7 +6875,7 @@
         <v>160</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L41" s="70"/>
       <c r="M41" s="70"/>
@@ -6753,11 +6892,11 @@
       <c r="D42" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="208"/>
-      <c r="F42" s="206" t="s">
+      <c r="E42" s="273"/>
+      <c r="F42" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="207"/>
+      <c r="G42" s="254"/>
       <c r="H42" s="6" t="s">
         <v>189</v>
       </c>
@@ -6765,7 +6904,7 @@
         <v>202</v>
       </c>
       <c r="J42" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L42" s="70"/>
       <c r="M42" s="70"/>
@@ -6782,11 +6921,11 @@
       <c r="D43" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="208"/>
-      <c r="F43" s="206" t="s">
+      <c r="E43" s="273"/>
+      <c r="F43" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="207"/>
+      <c r="G43" s="254"/>
       <c r="H43" s="41" t="s">
         <v>136</v>
       </c>
@@ -6794,7 +6933,7 @@
         <v>170</v>
       </c>
       <c r="J43" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L43" s="70"/>
       <c r="M43" s="70"/>
@@ -6811,11 +6950,11 @@
       <c r="D44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="209"/>
-      <c r="F44" s="206" t="s">
+      <c r="E44" s="274"/>
+      <c r="F44" s="255" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="207"/>
+      <c r="G44" s="254"/>
       <c r="H44" s="6" t="s">
         <v>192</v>
       </c>
@@ -6823,7 +6962,7 @@
         <v>171</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L44" s="70"/>
       <c r="M44" s="70"/>
@@ -6843,10 +6982,10 @@
       <c r="E45" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F45" s="206" t="s">
+      <c r="F45" s="255" t="s">
         <v>201</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="254"/>
       <c r="H45" s="6" t="s">
         <v>169</v>
       </c>
@@ -6854,10 +6993,10 @@
         <v>172</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="K45" s="250"/>
-      <c r="L45" s="251"/>
+        <v>271</v>
+      </c>
+      <c r="K45" s="82"/>
+      <c r="L45" s="83"/>
       <c r="M45" s="70"/>
       <c r="N45" s="70"/>
     </row>
@@ -6870,21 +7009,21 @@
         <v>23</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="F46" s="204" t="s">
         <v>386</v>
       </c>
-      <c r="G46" s="203"/>
+      <c r="F46" s="280" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" s="281"/>
       <c r="H46" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
@@ -6893,24 +7032,24 @@
         <v>39</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="F47" s="202" t="s">
         <v>397</v>
       </c>
-      <c r="G47" s="203"/>
+      <c r="F47" s="282" t="s">
+        <v>396</v>
+      </c>
+      <c r="G47" s="281"/>
       <c r="H47" s="59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
@@ -6918,16 +7057,16 @@
       <c r="C48" s="30"/>
       <c r="D48" s="31"/>
       <c r="E48" s="29"/>
-      <c r="F48" s="202" t="s">
-        <v>420</v>
-      </c>
-      <c r="G48" s="205"/>
+      <c r="F48" s="282" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" s="283"/>
       <c r="H48" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
@@ -6938,15 +7077,15 @@
       <c r="C49" s="30"/>
       <c r="D49" s="31"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="202" t="s">
+      <c r="F49" s="282" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" s="281"/>
+      <c r="H49" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="G49" s="203"/>
-      <c r="H49" s="61" t="s">
-        <v>401</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="J49" s="32"/>
     </row>
@@ -6958,8 +7097,8 @@
       <c r="C50" s="30"/>
       <c r="D50" s="31"/>
       <c r="E50" s="29"/>
-      <c r="F50" s="204"/>
-      <c r="G50" s="203"/>
+      <c r="F50" s="280"/>
+      <c r="G50" s="281"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -6976,8 +7115,8 @@
       <c r="B52" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="185"/>
       <c r="E52" s="16" t="s">
         <v>93</v>
       </c>
@@ -6985,9 +7124,9 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="171"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="187"/>
       <c r="E53" s="17"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -7030,6 +7169,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F2:J6"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B2:C6"/>
@@ -7046,52 +7231,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F2:J6"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="F48:G48"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -7115,10 +7254,11 @@
     <hyperlink ref="F47" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
     <hyperlink ref="F11" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
     <hyperlink ref="J22" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="F30" r:id="rId21" xr:uid="{39E75041-B441-4D14-8B9C-87E71E14318C}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="38" orientation="landscape" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup scale="38" orientation="landscape" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -7129,8 +7269,8 @@
   </sheetPr>
   <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7146,49 +7286,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="134">
+      <c r="B2" s="256"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="262">
         <f ca="1">TODAY()</f>
-        <v>44400</v>
-      </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="218"/>
+        <v>44410</v>
+      </c>
+      <c r="E2" s="263"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="285"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="136" t="s">
+      <c r="B3" s="258"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="219"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="286"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="138" t="s">
+      <c r="B4" s="258"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="219"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="259"/>
+      <c r="H4" s="286"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="221" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="222"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="220"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="288" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="289"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="287"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -7212,12 +7352,12 @@
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="214" t="s">
+      <c r="F7" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="215"/>
+      <c r="G7" s="276"/>
       <c r="H7" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7230,15 +7370,15 @@
       <c r="D8" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="210" t="s">
+      <c r="E8" s="272" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="206" t="s">
+      <c r="F8" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="207"/>
+      <c r="G8" s="254"/>
       <c r="H8" s="60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7246,18 +7386,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="208"/>
-      <c r="F9" s="206" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" s="207"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="255" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="254"/>
       <c r="H9" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7265,15 +7405,15 @@
         <v>3</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="E10" s="209"/>
-      <c r="F10" s="206" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="274"/>
+      <c r="F10" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="207"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7281,18 +7421,18 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="43"/>
       <c r="H11" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7303,17 +7443,17 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="272" t="s">
         <v>351</v>
       </c>
-      <c r="E12" s="210" t="s">
-        <v>352</v>
-      </c>
-      <c r="F12" s="206" t="s">
+      <c r="F12" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="207"/>
+      <c r="G12" s="254"/>
       <c r="H12" s="54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7322,15 +7462,15 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="206" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="273"/>
+      <c r="F13" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="207"/>
+      <c r="G13" s="254"/>
       <c r="H13" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7343,13 +7483,13 @@
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="206" t="s">
+      <c r="E14" s="273"/>
+      <c r="F14" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="207"/>
+      <c r="G14" s="254"/>
       <c r="H14" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7360,13 +7500,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="208"/>
+        <v>352</v>
+      </c>
+      <c r="E15" s="273"/>
       <c r="F15" s="42"/>
       <c r="G15" s="43"/>
       <c r="H15" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7379,11 +7519,11 @@
       <c r="D16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="208"/>
+      <c r="E16" s="273"/>
       <c r="F16" s="42"/>
       <c r="G16" s="43"/>
       <c r="H16" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7396,13 +7536,13 @@
       <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="208"/>
-      <c r="F17" s="206" t="s">
+      <c r="E17" s="273"/>
+      <c r="F17" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="207"/>
+      <c r="G17" s="254"/>
       <c r="H17" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7411,13 +7551,13 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E18" s="209"/>
+        <v>421</v>
+      </c>
+      <c r="E18" s="274"/>
       <c r="F18" s="66"/>
       <c r="G18" s="65"/>
       <c r="H18" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7428,17 +7568,17 @@
         <v>30</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E19" s="210" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="206" t="s">
+      <c r="F19" s="255" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="207"/>
+      <c r="G19" s="254"/>
       <c r="H19" s="54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7451,13 +7591,13 @@
       <c r="D20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="206" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="207"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="255" t="s">
+        <v>354</v>
+      </c>
+      <c r="G20" s="254"/>
       <c r="H20" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7465,16 +7605,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="63"/>
       <c r="F21" s="64"/>
       <c r="G21" s="62"/>
       <c r="H21" s="57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7485,17 +7625,17 @@
         <v>35</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E22" s="210" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="206" t="s">
+      <c r="F22" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="207"/>
+      <c r="G22" s="254"/>
       <c r="H22" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7506,15 +7646,15 @@
         <v>39</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="E23" s="209"/>
-      <c r="F23" s="206" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="274"/>
+      <c r="F23" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="207"/>
+      <c r="G23" s="254"/>
       <c r="H23" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7522,20 +7662,20 @@
         <v>17</v>
       </c>
       <c r="C24" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="E24" s="210" t="s">
-        <v>391</v>
-      </c>
-      <c r="F24" s="206" t="s">
+      <c r="E24" s="272" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="207"/>
+      <c r="G24" s="254"/>
       <c r="H24" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7544,13 +7684,13 @@
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="E25" s="209"/>
+        <v>420</v>
+      </c>
+      <c r="E25" s="274"/>
       <c r="F25" s="68"/>
       <c r="G25" s="67"/>
       <c r="H25" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7561,17 +7701,17 @@
         <v>47</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="E26" s="210" t="s">
+        <v>359</v>
+      </c>
+      <c r="E26" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="206" t="s">
+      <c r="F26" s="255" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="207"/>
+      <c r="G26" s="254"/>
       <c r="H26" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7582,15 +7722,15 @@
         <v>51</v>
       </c>
       <c r="D27" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" s="273"/>
+      <c r="F27" s="255" t="s">
         <v>360</v>
       </c>
-      <c r="E27" s="208"/>
-      <c r="F27" s="206" t="s">
-        <v>361</v>
-      </c>
-      <c r="G27" s="207"/>
+      <c r="G27" s="254"/>
       <c r="H27" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7603,13 +7743,13 @@
       <c r="D28" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="208"/>
-      <c r="F28" s="206" t="s">
+      <c r="E28" s="273"/>
+      <c r="F28" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="207"/>
+      <c r="G28" s="254"/>
       <c r="H28" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7622,13 +7762,13 @@
       <c r="D29" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="209"/>
-      <c r="F29" s="206" t="s">
+      <c r="E29" s="274"/>
+      <c r="F29" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="207"/>
+      <c r="G29" s="254"/>
       <c r="H29" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7641,13 +7781,13 @@
       <c r="D30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="210" t="s">
-        <v>362</v>
+      <c r="E30" s="272" t="s">
+        <v>361</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="43"/>
       <c r="H30" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7660,13 +7800,13 @@
       <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="209"/>
-      <c r="F31" s="206" t="s">
+      <c r="E31" s="274"/>
+      <c r="F31" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="207"/>
+      <c r="G31" s="254"/>
       <c r="H31" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7679,15 +7819,15 @@
       <c r="D32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="210" t="s">
+      <c r="E32" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="206" t="s">
+      <c r="F32" s="255" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="207"/>
+      <c r="G32" s="254"/>
       <c r="H32" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7698,26 +7838,26 @@
         <v>65</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="E33" s="208"/>
-      <c r="F33" s="206" t="s">
+        <v>362</v>
+      </c>
+      <c r="E33" s="273"/>
+      <c r="F33" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="207"/>
+      <c r="G33" s="254"/>
       <c r="H33" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="9"/>
       <c r="D34" s="47"/>
-      <c r="E34" s="209"/>
+      <c r="E34" s="274"/>
       <c r="F34" s="75"/>
       <c r="G34" s="74"/>
       <c r="H34" s="54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7728,17 +7868,17 @@
         <v>67</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E35" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="206" t="s">
+      <c r="F35" s="255" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="207"/>
+      <c r="G35" s="254"/>
       <c r="H35" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7749,17 +7889,17 @@
         <v>32</v>
       </c>
       <c r="D36" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="E36" s="272" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="255" t="s">
+        <v>364</v>
+      </c>
+      <c r="G36" s="254"/>
+      <c r="H36" s="84" t="s">
         <v>408</v>
-      </c>
-      <c r="E36" s="210" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="206" t="s">
-        <v>365</v>
-      </c>
-      <c r="G36" s="207"/>
-      <c r="H36" s="252" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,13 +7912,13 @@
       <c r="D37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="208"/>
-      <c r="F37" s="206" t="s">
+      <c r="E37" s="273"/>
+      <c r="F37" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="207"/>
-      <c r="H37" s="253" t="s">
-        <v>412</v>
+      <c r="G37" s="254"/>
+      <c r="H37" s="85" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7791,13 +7931,13 @@
       <c r="D38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="208"/>
-      <c r="F38" s="206" t="s">
+      <c r="E38" s="273"/>
+      <c r="F38" s="255" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="207"/>
-      <c r="H38" s="253" t="s">
-        <v>413</v>
+      <c r="G38" s="254"/>
+      <c r="H38" s="85" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7810,13 +7950,13 @@
       <c r="D39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="209"/>
-      <c r="F39" s="206" t="s">
+      <c r="E39" s="274"/>
+      <c r="F39" s="255" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="207"/>
-      <c r="H39" s="253" t="s">
-        <v>414</v>
+      <c r="G39" s="254"/>
+      <c r="H39" s="85" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7829,15 +7969,15 @@
       <c r="D40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="210" t="s">
-        <v>366</v>
-      </c>
-      <c r="F40" s="206" t="s">
+      <c r="E40" s="272" t="s">
+        <v>365</v>
+      </c>
+      <c r="F40" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="207"/>
+      <c r="G40" s="254"/>
       <c r="H40" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7850,11 +7990,11 @@
       <c r="D41" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="208"/>
+      <c r="E41" s="273"/>
       <c r="F41" s="42"/>
       <c r="G41" s="43"/>
       <c r="H41" s="54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7867,13 +8007,13 @@
       <c r="D42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="208"/>
-      <c r="F42" s="206" t="s">
+      <c r="E42" s="273"/>
+      <c r="F42" s="255" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="207"/>
+      <c r="G42" s="254"/>
       <c r="H42" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7886,13 +8026,13 @@
       <c r="D43" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="209"/>
-      <c r="F43" s="206" t="s">
-        <v>367</v>
-      </c>
-      <c r="G43" s="207"/>
+      <c r="E43" s="274"/>
+      <c r="F43" s="255" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" s="254"/>
       <c r="H43" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7905,15 +8045,15 @@
       <c r="D44" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="210" t="s">
+      <c r="E44" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="206" t="s">
+      <c r="F44" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="207"/>
+      <c r="G44" s="254"/>
       <c r="H44" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7926,13 +8066,13 @@
       <c r="D45" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="208"/>
-      <c r="F45" s="206" t="s">
+      <c r="E45" s="273"/>
+      <c r="F45" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="207"/>
+      <c r="G45" s="254"/>
       <c r="H45" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7945,13 +8085,13 @@
       <c r="D46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="209"/>
-      <c r="F46" s="206" t="s">
+      <c r="E46" s="274"/>
+      <c r="F46" s="255" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="207"/>
+      <c r="G46" s="254"/>
       <c r="H46" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7961,10 +8101,10 @@
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="206"/>
-      <c r="G47" s="207"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="254"/>
       <c r="H47" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7974,10 +8114,10 @@
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="207"/>
+      <c r="F48" s="255"/>
+      <c r="G48" s="254"/>
       <c r="H48" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7987,10 +8127,10 @@
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="206"/>
-      <c r="G49" s="207"/>
+      <c r="F49" s="255"/>
+      <c r="G49" s="254"/>
       <c r="H49" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8000,8 +8140,8 @@
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="206"/>
-      <c r="G50" s="207"/>
+      <c r="F50" s="255"/>
+      <c r="G50" s="254"/>
       <c r="H50" s="49"/>
     </row>
     <row r="51" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8011,8 +8151,8 @@
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="206"/>
-      <c r="G51" s="207"/>
+      <c r="F51" s="255"/>
+      <c r="G51" s="254"/>
       <c r="H51" s="49"/>
     </row>
     <row r="52" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8022,8 +8162,8 @@
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="207"/>
+      <c r="F52" s="255"/>
+      <c r="G52" s="254"/>
       <c r="H52" s="49"/>
     </row>
     <row r="53" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8033,8 +8173,8 @@
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="206"/>
-      <c r="G53" s="207"/>
+      <c r="F53" s="255"/>
+      <c r="G53" s="254"/>
       <c r="H53" s="49"/>
     </row>
     <row r="54" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8044,8 +8184,8 @@
       <c r="C54" s="9"/>
       <c r="D54" s="47"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="207"/>
+      <c r="F54" s="255"/>
+      <c r="G54" s="254"/>
       <c r="H54" s="49"/>
     </row>
     <row r="55" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8055,8 +8195,8 @@
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="206"/>
-      <c r="G55" s="207"/>
+      <c r="F55" s="255"/>
+      <c r="G55" s="254"/>
       <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8066,8 +8206,8 @@
       <c r="C56" s="9"/>
       <c r="D56" s="47"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="207"/>
+      <c r="F56" s="255"/>
+      <c r="G56" s="254"/>
       <c r="H56" s="49"/>
     </row>
     <row r="57" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8077,8 +8217,8 @@
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="206"/>
-      <c r="G57" s="207"/>
+      <c r="F57" s="255"/>
+      <c r="G57" s="254"/>
       <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8088,8 +8228,8 @@
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="207"/>
+      <c r="F58" s="255"/>
+      <c r="G58" s="254"/>
       <c r="H58" s="49"/>
     </row>
     <row r="59" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8099,8 +8239,8 @@
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
       <c r="E59" s="11"/>
-      <c r="F59" s="206"/>
-      <c r="G59" s="207"/>
+      <c r="F59" s="255"/>
+      <c r="G59" s="254"/>
       <c r="H59" s="49"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8116,8 +8256,8 @@
       <c r="B61" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="216"/>
-      <c r="D61" s="217"/>
+      <c r="C61" s="290"/>
+      <c r="D61" s="291"/>
       <c r="E61" s="16" t="s">
         <v>93</v>
       </c>
@@ -8126,9 +8266,9 @@
       <c r="H61" s="46"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="171"/>
-      <c r="C62" s="172"/>
-      <c r="D62" s="223"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="187"/>
+      <c r="D62" s="284"/>
       <c r="E62" s="17"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -8141,7 +8281,7 @@
       <c r="C63" s="19"/>
       <c r="D63" s="51"/>
       <c r="E63" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -8154,7 +8294,7 @@
       <c r="C64" s="22"/>
       <c r="D64" s="52"/>
       <c r="E64" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -8175,30 +8315,33 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:G19"/>
@@ -8212,33 +8355,30 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E32:E34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -8248,17 +8388,176 @@
     <hyperlink ref="H37" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="1.1811023622047245" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" scale="68" orientation="landscape" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId5"/>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC48D57-4D9B-4481-AB87-4472A5F7ADA0}">
+  <dimension ref="B1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="153" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="157" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="154" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="158" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="155" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="159" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="155" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="159" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="155" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="160" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="155" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="160" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="155" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="159" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="155" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="155" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="159" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="155" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="159" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="155" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" s="160" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="155" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="160" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="155" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="160" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="155" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="160" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="155" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="159" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="156" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" s="161" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{FC212EC5-5BDB-48CD-8A6A-AADFEB458DD5}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{5F8379DF-7BB3-46DA-AA2C-5C8195B613CC}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{57A9AE2D-B081-46D4-AB4D-02D1A016D719}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{3196B303-7705-4239-BC2B-EA74DD94F7E1}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{225FFA89-DA9E-49D3-99B4-2AEBB93E748E}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{30AAFB7D-93A1-4634-A2FD-CCF34D3F9165}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{A9B79E83-E923-415C-8F2E-224DF3AFF0A3}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{E4B2B662-A0EF-4C73-A368-A9AAD5C05C18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8270,62 +8569,114 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" t="s">
         <v>441</v>
-      </c>
-      <c r="C2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" t="s">
         <v>443</v>
-      </c>
-      <c r="C3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" t="s">
         <v>446</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" t="s">
         <v>447</v>
       </c>
-      <c r="D5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>449</v>
-      </c>
       <c r="I18" s="73"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{F5CECE09-56EE-447E-8D83-944B8F545084}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{609221F7-DB51-4E7E-BAEE-D76088F572F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2408F852-9F46-4E01-A8D2-174E10281EA9}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8336,27 +8687,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="86" t="s">
+        <v>486</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="86" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C3" s="86" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="254" t="s">
+    <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="151" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="86" t="s">
         <v>488</v>
       </c>
-      <c r="C3" s="254" t="s">
-        <v>490</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{280A445F-C807-4B01-8163-5A6BB3A2E1D9}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{0AC4C88F-E121-4483-A078-20BB84455A97}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{E2D44C8A-9071-4D3D-8E9D-C0CFC8D197C5}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{A4460524-547C-4F8A-8A02-35834C717DED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId5"/>
 </worksheet>
 </file>